--- a/biology/Botanique/Adélaïde_d'Orléans_(rose)/Adélaïde_d'Orléans_(rose).xlsx
+++ b/biology/Botanique/Adélaïde_d'Orléans_(rose)/Adélaïde_d'Orléans_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9la%C3%AFde_d%27Orl%C3%A9ans_(rose)</t>
+          <t>Adélaïde_d'Orléans_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ‘Adélaïde d'Orléans’ est un cultivar de rosier grimpant obtenu en 1826 par Antoine Jacques, jardinier de la famille d'Orléans à Neuilly. Il rend hommage à la princesse Adélaïde d'Orléans (1777-1847), sœur du duc d'Orléans, Louis-Philippe, futur roi des Français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A9la%C3%AFde_d%27Orl%C3%A9ans_(rose)</t>
+          <t>Adélaïde_d'Orléans_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de Rosa sempervirens, célèbre dans de nombreux pays, fleurit dans les jardins pendant trois semaines en juin-juillet[1] grâce à ses grappes de fleurs blanches en rosettes plates et parfumées. Le bouton est rose foncé, puis la fleur semi-double à double (plus de 40 pétales[2]) et relativement grande s'éclaircit[3], jusqu'à devenir blanche, dévoilant des étamines d'or[4]. 
-Son buisson vigoureux au feuillage vert foncé garde ses feuilles tard dans la saison[3]. Ses rameaux souples se laissent facilement conduire le long d'arceaux ou de treillis[5]. Ce grimpant s'élève à 4,50 mètres[6]. Il résiste à des températures de l'ordre de -20 degrés[7].
-‘Adélaïde d'Orléans’ est une variété célèbre que l'on peut admirer dans la plupart des grandes roseraies du monde, comme à la roseraie de Bagatelle, à l'Europa-Rosarium de Sangerhausen, au jardin botanique royal de Madrid, à la roseraie du château du Mesnil-Geoffroy[8] ou à la roseraie de L'Haÿ-les-Roses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de Rosa sempervirens, célèbre dans de nombreux pays, fleurit dans les jardins pendant trois semaines en juin-juillet grâce à ses grappes de fleurs blanches en rosettes plates et parfumées. Le bouton est rose foncé, puis la fleur semi-double à double (plus de 40 pétales) et relativement grande s'éclaircit, jusqu'à devenir blanche, dévoilant des étamines d'or. 
+Son buisson vigoureux au feuillage vert foncé garde ses feuilles tard dans la saison. Ses rameaux souples se laissent facilement conduire le long d'arceaux ou de treillis. Ce grimpant s'élève à 4,50 mètres. Il résiste à des températures de l'ordre de -20 degrés.
+‘Adélaïde d'Orléans’ est une variété célèbre que l'on peut admirer dans la plupart des grandes roseraies du monde, comme à la roseraie de Bagatelle, à l'Europa-Rosarium de Sangerhausen, au jardin botanique royal de Madrid, à la roseraie du château du Mesnil-Geoffroy ou à la roseraie de L'Haÿ-les-Roses.
 </t>
         </is>
       </c>
